--- a/subject list.xlsx
+++ b/subject list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Experiments\Yonatan\auditory-motor-fMRI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA1D5A12-4551-4C0F-9381-15A0898D8698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ACA591C-806C-4BD9-AE01-52C52F9C4BB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="13">
   <si>
     <t>subject number</t>
   </si>
@@ -46,6 +46,24 @@
   </si>
   <si>
     <t>Itzkovitch</t>
+  </si>
+  <si>
+    <t>Adi</t>
+  </si>
+  <si>
+    <t>Cantor</t>
+  </si>
+  <si>
+    <t>starting ear</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>7 presses, only one localizer from each kind, both called motor</t>
   </si>
 </sst>
 </file>
@@ -364,21 +382,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" customWidth="1"/>
     <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -394,8 +412,11 @@
       <c r="E1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>101</v>
       </c>
@@ -407,6 +428,245 @@
       </c>
       <c r="E2" s="1">
         <v>44990</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>102</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1">
+        <v>44997</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>103</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>104</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>105</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>106</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>107</v>
+      </c>
+      <c r="F8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>108</v>
+      </c>
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>109</v>
+      </c>
+      <c r="F10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>110</v>
+      </c>
+      <c r="F11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>111</v>
+      </c>
+      <c r="F12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>112</v>
+      </c>
+      <c r="F13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>113</v>
+      </c>
+      <c r="F14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>114</v>
+      </c>
+      <c r="F15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>115</v>
+      </c>
+      <c r="F16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>116</v>
+      </c>
+      <c r="F17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>117</v>
+      </c>
+      <c r="F18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>118</v>
+      </c>
+      <c r="F19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>119</v>
+      </c>
+      <c r="F20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>120</v>
+      </c>
+      <c r="F21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>121</v>
+      </c>
+      <c r="F22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>122</v>
+      </c>
+      <c r="F23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>123</v>
+      </c>
+      <c r="F24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>124</v>
+      </c>
+      <c r="F25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>125</v>
+      </c>
+      <c r="F26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>126</v>
+      </c>
+      <c r="F27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>127</v>
+      </c>
+      <c r="F28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>128</v>
+      </c>
+      <c r="F29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>129</v>
+      </c>
+      <c r="F30" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/subject list.xlsx
+++ b/subject list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Experiments\Yonatan\auditory-motor-fMRI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ACA591C-806C-4BD9-AE01-52C52F9C4BB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B500664-B2B2-4466-A6C4-EBE840756E94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="14">
   <si>
     <t>subject number</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>7 presses, only one localizer from each kind, both called motor</t>
+  </si>
+  <si>
+    <t>8 presses</t>
   </si>
 </sst>
 </file>
@@ -384,15 +387,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" customWidth="1"/>
+    <col min="4" max="4" width="21.5546875" customWidth="1"/>
     <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -457,6 +460,9 @@
       <c r="A4">
         <v>103</v>
       </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
       <c r="F4" t="s">
         <v>10</v>
       </c>
@@ -464,6 +470,9 @@
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>104</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
       </c>
       <c r="F5" t="s">
         <v>11</v>

--- a/subject list.xlsx
+++ b/subject list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Experiments\Yonatan\auditory-motor-fMRI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B500664-B2B2-4466-A6C4-EBE840756E94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D78A7508-D875-4A33-8AE6-229DA03895A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1164" windowWidth="17280" windowHeight="8976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="16">
   <si>
     <t>subject number</t>
   </si>
@@ -67,6 +67,12 @@
   </si>
   <si>
     <t>8 presses</t>
+  </si>
+  <si>
+    <t>Eyal</t>
+  </si>
+  <si>
+    <t>Ben shachar</t>
   </si>
 </sst>
 </file>
@@ -388,7 +394,7 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -460,8 +466,17 @@
       <c r="A4">
         <v>103</v>
       </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
       <c r="D4" t="s">
         <v>13</v>
+      </c>
+      <c r="E4" s="1">
+        <v>45057</v>
       </c>
       <c r="F4" t="s">
         <v>10</v>

--- a/subject list.xlsx
+++ b/subject list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Experiments\Yonatan\auditory-motor-fMRI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D78A7508-D875-4A33-8AE6-229DA03895A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBAA8DDF-F47A-471D-8FA4-71432D6155B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1164" windowWidth="17280" windowHeight="8976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4920" yWindow="3468" windowWidth="17280" windowHeight="8892" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="19">
   <si>
     <t>subject number</t>
   </si>
@@ -66,13 +66,22 @@
     <t>7 presses, only one localizer from each kind, both called motor</t>
   </si>
   <si>
-    <t>8 presses</t>
-  </si>
-  <si>
     <t>Eyal</t>
   </si>
   <si>
     <t>Ben shachar</t>
+  </si>
+  <si>
+    <t>inbal</t>
+  </si>
+  <si>
+    <t>gur-arye</t>
+  </si>
+  <si>
+    <t>8 presses, data under 104</t>
+  </si>
+  <si>
+    <t>8 presses, data un,der 103, first experimental run is bad, first auditory localizer also</t>
   </si>
 </sst>
 </file>
@@ -394,7 +403,7 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -467,13 +476,13 @@
         <v>103</v>
       </c>
       <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E4" s="1">
         <v>45057</v>
@@ -486,8 +495,17 @@
       <c r="A5">
         <v>104</v>
       </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>18</v>
+      </c>
+      <c r="E5" s="1">
+        <v>45063</v>
       </c>
       <c r="F5" t="s">
         <v>11</v>

--- a/subject list.xlsx
+++ b/subject list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Experiments\Yonatan\auditory-motor-fMRI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonathan\Documents\MSc-neuroscience\auditory-experiment-code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBAA8DDF-F47A-471D-8FA4-71432D6155B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A90B739A-7A03-40BD-B33E-9E78FC9C4253}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4920" yWindow="3468" windowWidth="17280" windowHeight="8892" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="26">
   <si>
     <t>subject number</t>
   </si>
@@ -63,9 +63,6 @@
     <t>R</t>
   </si>
   <si>
-    <t>7 presses, only one localizer from each kind, both called motor</t>
-  </si>
-  <si>
     <t>Eyal</t>
   </si>
   <si>
@@ -78,10 +75,34 @@
     <t>gur-arye</t>
   </si>
   <si>
-    <t>8 presses, data under 104</t>
-  </si>
-  <si>
-    <t>8 presses, data un,der 103, first experimental run is bad, first auditory localizer also</t>
+    <t>remove: left handed, 7 presses, only one localizer from each kind, both called motor</t>
+  </si>
+  <si>
+    <t>avigail</t>
+  </si>
+  <si>
+    <t>valeria</t>
+  </si>
+  <si>
+    <t>ran</t>
+  </si>
+  <si>
+    <t>remove: too many errors</t>
+  </si>
+  <si>
+    <t>pulwermacher</t>
+  </si>
+  <si>
+    <t>silverstein</t>
+  </si>
+  <si>
+    <t>chalima</t>
+  </si>
+  <si>
+    <t>7 button presses</t>
+  </si>
+  <si>
+    <t>first experimental run is bad, first auditory localizer also, need to re-run anatomy because of bad FOV, waiting because of new earring</t>
   </si>
 </sst>
 </file>
@@ -97,12 +118,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -117,9 +144,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -403,311 +447,344 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.5546875" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
         <v>101</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="1">
+      <c r="D2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="3">
         <v>44990</v>
       </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
         <v>102</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="6">
+        <v>44997</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>103</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="3">
+        <v>45063</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>104</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="1">
-        <v>44997</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>103</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E5" s="3">
+        <v>45057</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>105</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="3">
+        <v>45068</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>106</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="1">
-        <v>45057</v>
-      </c>
-      <c r="F4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>104</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="C7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="3">
+        <v>45070</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>107</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="1">
-        <v>45063</v>
-      </c>
-      <c r="F5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>105</v>
-      </c>
-      <c r="F6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>106</v>
-      </c>
-      <c r="F7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>107</v>
-      </c>
-      <c r="F8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="C8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="6">
+        <v>45070</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <v>108</v>
       </c>
-      <c r="F9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="F9" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>109</v>
       </c>
-      <c r="F10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="F10" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
         <v>110</v>
       </c>
-      <c r="F11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12">
+      <c r="F11" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
         <v>111</v>
       </c>
-      <c r="F12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13">
+      <c r="F12" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <v>112</v>
       </c>
-      <c r="F13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14">
+      <c r="F13" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
         <v>113</v>
       </c>
-      <c r="F14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15">
+      <c r="F14" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
         <v>114</v>
       </c>
-      <c r="F15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16">
+      <c r="F15" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
         <v>115</v>
       </c>
-      <c r="F16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17">
+      <c r="F16" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
         <v>116</v>
       </c>
-      <c r="F17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18">
+      <c r="F17" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
         <v>117</v>
       </c>
-      <c r="F18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19">
+      <c r="F18" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
         <v>118</v>
       </c>
-      <c r="F19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20">
+      <c r="F19" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
         <v>119</v>
       </c>
-      <c r="F20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21">
+      <c r="F20" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
         <v>120</v>
       </c>
-      <c r="F21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22">
+      <c r="F21" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
         <v>121</v>
       </c>
-      <c r="F22" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23">
+      <c r="F22" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
         <v>122</v>
       </c>
-      <c r="F23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24">
+      <c r="F23" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
         <v>123</v>
       </c>
-      <c r="F24" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25">
+      <c r="F24" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
         <v>124</v>
       </c>
-      <c r="F25" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26">
+      <c r="F25" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
         <v>125</v>
       </c>
-      <c r="F26" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27">
+      <c r="F26" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
         <v>126</v>
       </c>
-      <c r="F27" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28">
+      <c r="F27" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
         <v>127</v>
       </c>
-      <c r="F28" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29">
+      <c r="F28" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
         <v>128</v>
       </c>
-      <c r="F29" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30">
+      <c r="F29" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
         <v>129</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="2" t="s">
         <v>11</v>
       </c>
     </row>

--- a/subject list.xlsx
+++ b/subject list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Experiments\Yonatan\auditory-motor-fMRI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBAA8DDF-F47A-471D-8FA4-71432D6155B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA26AF11-ABF7-4A3B-8899-160462E14C52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4920" yWindow="3468" windowWidth="17280" windowHeight="8892" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="28">
   <si>
     <t>subject number</t>
   </si>
@@ -82,6 +82,33 @@
   </si>
   <si>
     <t>8 presses, data un,der 103, first experimental run is bad, first auditory localizer also</t>
+  </si>
+  <si>
+    <t>ran</t>
+  </si>
+  <si>
+    <t>pulwermacher</t>
+  </si>
+  <si>
+    <t>avigail</t>
+  </si>
+  <si>
+    <t>??</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roni </t>
+  </si>
+  <si>
+    <t>cegla</t>
+  </si>
+  <si>
+    <t>3.7.23</t>
+  </si>
+  <si>
+    <t>yana</t>
+  </si>
+  <si>
+    <t>meistelman</t>
   </si>
 </sst>
 </file>
@@ -403,13 +430,14 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.5546875" customWidth="1"/>
     <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -515,6 +543,15 @@
       <c r="A6">
         <v>105</v>
       </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="1">
+        <v>45068</v>
+      </c>
       <c r="F6" t="s">
         <v>10</v>
       </c>
@@ -523,6 +560,12 @@
       <c r="A7">
         <v>106</v>
       </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="1">
+        <v>45070</v>
+      </c>
       <c r="F7" t="s">
         <v>11</v>
       </c>
@@ -531,6 +574,9 @@
       <c r="A8">
         <v>107</v>
       </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
       <c r="F8" t="s">
         <v>10</v>
       </c>
@@ -539,6 +585,15 @@
       <c r="A9">
         <v>108</v>
       </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
       <c r="F9" t="s">
         <v>11</v>
       </c>
@@ -546,6 +601,15 @@
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>109</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>

--- a/subject list.xlsx
+++ b/subject list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Experiments\Yonatan\auditory-motor-fMRI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{958C518E-F8AE-4C8B-A055-269469FBBDDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{902B4DF1-FF0D-4A95-8E1F-83C05FD51284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="33">
   <si>
     <t>subject number</t>
   </si>
@@ -109,6 +109,21 @@
   </si>
   <si>
     <t>meistelman</t>
+  </si>
+  <si>
+    <t>omri</t>
+  </si>
+  <si>
+    <t>4.7.23</t>
+  </si>
+  <si>
+    <t>punaro</t>
+  </si>
+  <si>
+    <t>nataliya</t>
+  </si>
+  <si>
+    <t>lukashov</t>
   </si>
 </sst>
 </file>
@@ -430,7 +445,7 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -619,6 +634,15 @@
       <c r="A11">
         <v>110</v>
       </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" t="s">
+        <v>29</v>
+      </c>
       <c r="F11" t="s">
         <v>11</v>
       </c>
@@ -626,6 +650,15 @@
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>111</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" t="s">
+        <v>29</v>
       </c>
       <c r="F12" t="s">
         <v>10</v>

--- a/subject list.xlsx
+++ b/subject list.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Experiments\Yonatan\auditory-motor-fMRI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonathan\Documents\MSc-neuroscience\auditory-experiment-code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{902B4DF1-FF0D-4A95-8E1F-83C05FD51284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17D00FBB-B5B6-454E-855D-78BE7E2ACF9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15" yWindow="15" windowWidth="21390" windowHeight="10335" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="44">
   <si>
     <t>subject number</t>
   </si>
@@ -63,9 +63,6 @@
     <t>R</t>
   </si>
   <si>
-    <t>7 presses, only one localizer from each kind, both called motor</t>
-  </si>
-  <si>
     <t>Eyal</t>
   </si>
   <si>
@@ -81,9 +78,6 @@
     <t>8 presses, data under 104</t>
   </si>
   <si>
-    <t>8 presses, data un,der 103, first experimental run is bad, first auditory localizer also</t>
-  </si>
-  <si>
     <t>ran</t>
   </si>
   <si>
@@ -93,9 +87,6 @@
     <t>avigail</t>
   </si>
   <si>
-    <t>??</t>
-  </si>
-  <si>
     <t xml:space="preserve">roni </t>
   </si>
   <si>
@@ -124,6 +115,48 @@
   </si>
   <si>
     <t>lukashov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yuval </t>
+  </si>
+  <si>
+    <t>ben ari</t>
+  </si>
+  <si>
+    <t xml:space="preserve">delete first audiomotor run </t>
+  </si>
+  <si>
+    <t>mali</t>
+  </si>
+  <si>
+    <t>rothestein</t>
+  </si>
+  <si>
+    <t>10.7.23</t>
+  </si>
+  <si>
+    <t>chalima</t>
+  </si>
+  <si>
+    <t>very bad run, too many errors. Discard</t>
+  </si>
+  <si>
+    <t>need to redo the anatomical scan!! 8 presses, data under 103, first experimental run is bad, first auditory localizer also</t>
+  </si>
+  <si>
+    <t>bad scan - huge artefact because of braces. Discard.delete first audiomotor run, delete first auditory run</t>
+  </si>
+  <si>
+    <t>discard, left handed. 7 presses, only one localizer from each kind, both called motor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yael </t>
+  </si>
+  <si>
+    <t>federman</t>
+  </si>
+  <si>
+    <t>F</t>
   </si>
 </sst>
 </file>
@@ -139,12 +172,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -159,9 +198,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -444,20 +491,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.5546875" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="80.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -467,7 +514,7 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
@@ -477,7 +524,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>101</v>
       </c>
@@ -494,38 +541,38 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3">
+    <row r="3" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
         <v>102</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="1">
+      <c r="D3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="5">
         <v>44997</v>
       </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F3" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>103</v>
       </c>
       <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
+      <c r="D4" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="E4" s="1">
         <v>45057</v>
@@ -534,18 +581,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>104</v>
       </c>
       <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
+      <c r="D5" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="E5" s="1">
         <v>45063</v>
@@ -554,15 +601,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>105</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E6" s="1">
         <v>45068</v>
@@ -571,12 +618,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>106</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E7" s="1">
         <v>45070</v>
@@ -585,110 +632,149 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8">
+    <row r="8" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <v>107</v>
       </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>108</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>109</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>110</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>111</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>112</v>
       </c>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" t="s">
+        <v>35</v>
+      </c>
       <c r="F13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14">
+    <row r="14" spans="1:6" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
         <v>113</v>
       </c>
-      <c r="F14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>114</v>
       </c>
+      <c r="B15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" t="s">
+        <v>35</v>
+      </c>
       <c r="F15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>115</v>
       </c>
@@ -696,7 +782,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>116</v>
       </c>
@@ -704,7 +790,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>117</v>
       </c>
@@ -712,7 +798,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>118</v>
       </c>
@@ -720,7 +806,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>119</v>
       </c>
@@ -728,7 +814,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>120</v>
       </c>
@@ -736,7 +822,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>121</v>
       </c>
@@ -744,7 +830,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>122</v>
       </c>
@@ -752,7 +838,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>123</v>
       </c>
@@ -760,7 +846,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>124</v>
       </c>
@@ -768,7 +854,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>125</v>
       </c>
@@ -776,7 +862,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>126</v>
       </c>
@@ -784,7 +870,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>127</v>
       </c>
@@ -792,7 +878,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>128</v>
       </c>
@@ -800,7 +886,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>129</v>
       </c>
@@ -810,5 +896,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>